--- a/reports/Hypothesis contrast.xlsx
+++ b/reports/Hypothesis contrast.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrián\Downloads\performance_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrián\Desktop\Workspace-21.1\Projects\D04\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68084B84-C931-46FB-AE4E-FD37AEDD1CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32906FCD-C1B1-41DE-AFF0-FAE11141BDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Before</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Como se puede observar obtenemos un p-value bastante inferior a 0'05, por lo que rechazamos la hipótesis. Por lo tanto, podemos afirmar que hay diferencias en las medias.</t>
+  </si>
+  <si>
+    <t>Intervalo de confianza</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,13 +295,13 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -326,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:L1237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,12 +622,12 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1131</v>
       </c>
@@ -639,7 +643,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>583</v>
       </c>
@@ -650,11 +654,11 @@
         <v>0</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>456</v>
       </c>
@@ -664,7 +668,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>583</v>
       </c>
@@ -677,15 +681,15 @@
       <c r="E5" s="6">
         <v>458.49514563106794</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>602</v>
       </c>
@@ -698,17 +702,17 @@
       <c r="E6" s="6">
         <v>7.6857205612502169</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="K6" s="12">
         <v>458.49514563106794</v>
       </c>
-      <c r="I6" s="12">
+      <c r="L6" s="12">
         <v>425.00728155339806</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>583</v>
       </c>
@@ -721,17 +725,17 @@
       <c r="E7" s="6">
         <v>583</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="12">
+      <c r="K7" s="12">
         <v>73010.59</v>
       </c>
-      <c r="I7" s="12">
+      <c r="L7" s="12">
         <v>53206.89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>596</v>
       </c>
@@ -744,17 +748,17 @@
       <c r="E8" s="6">
         <v>596</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="12">
+      <c r="K8" s="12">
         <v>1236</v>
       </c>
-      <c r="I8" s="12">
+      <c r="L8" s="12">
         <v>1236</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>588</v>
       </c>
@@ -767,15 +771,15 @@
       <c r="E9" s="6">
         <v>270.20527654801953</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="12">
+      <c r="K9" s="12">
         <v>0</v>
       </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>598</v>
       </c>
@@ -788,15 +792,15 @@
       <c r="E10" s="6">
         <v>73010.891474391712</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="12">
+      <c r="K10" s="12">
         <v>3.3138811685979364</v>
       </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>236</v>
       </c>
@@ -809,15 +813,15 @@
       <c r="E11" s="6">
         <v>283.2213589524917</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="12">
+      <c r="K11" s="12">
         <v>4.6005300898677159E-4</v>
       </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>596</v>
       </c>
@@ -830,15 +834,15 @@
       <c r="E12" s="6">
         <v>11.737679097700262</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="12">
+      <c r="K12" s="12">
         <v>1.6448536269514715</v>
       </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>618</v>
       </c>
@@ -851,15 +855,15 @@
       <c r="E13" s="6">
         <v>6852</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="12">
+      <c r="K13" s="12">
         <v>9.2010601797354319E-4</v>
       </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>620</v>
       </c>
@@ -872,15 +876,15 @@
       <c r="E14" s="6">
         <v>175</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="13">
+      <c r="K14" s="13">
         <v>1.9599639845400536</v>
       </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>601</v>
       </c>
@@ -894,7 +898,7 @@
         <v>7027</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>597</v>
       </c>
@@ -907,11 +911,11 @@
       <c r="E16" s="6">
         <v>566700</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="J16" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>598</v>
       </c>
@@ -924,13 +928,13 @@
       <c r="E17" s="6">
         <v>1236</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="J17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>596</v>
       </c>
@@ -943,78 +947,77 @@
       <c r="E18" s="8">
         <v>15.078512978517994</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>593</v>
       </c>
       <c r="B19" s="1">
         <v>594</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>584</v>
       </c>
       <c r="B20" s="1">
         <v>596</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="26">
+        <f>E5-E18</f>
+        <v>443.41663265254994</v>
+      </c>
+      <c r="F20" s="26">
+        <f>E5+E18</f>
+        <v>473.57365860958595</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>596</v>
       </c>
       <c r="B21" s="1">
         <v>592</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>595</v>
       </c>
       <c r="B22" s="1">
         <v>592</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>425.00728155339806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>597</v>
       </c>
       <c r="B23" s="1">
         <v>589</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6">
-        <v>6.5610707525930918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>584</v>
       </c>
@@ -1022,13 +1025,13 @@
         <v>579</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>425.00728155339806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>583</v>
       </c>
@@ -1036,13 +1039,13 @@
         <v>588</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="6">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.5610707525930918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>599</v>
       </c>
@@ -1050,13 +1053,13 @@
         <v>592</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="6">
-        <v>230.66619753179737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>599</v>
       </c>
@@ -1064,13 +1067,13 @@
         <v>587</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
-        <v>53206.894683778162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>257</v>
       </c>
@@ -1078,13 +1081,13 @@
         <v>156</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" s="6">
-        <v>4.2904173073558809</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230.66619753179737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>596</v>
       </c>
@@ -1092,13 +1095,13 @@
         <v>593</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="6">
-        <v>0.22328815955868009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53206.894683778162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>592</v>
       </c>
@@ -1106,13 +1109,13 @@
         <v>596</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="6">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.2904173073558809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>591</v>
       </c>
@@ -1120,13 +1123,13 @@
         <v>592</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.22328815955868009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>585</v>
       </c>
@@ -1134,13 +1137,13 @@
         <v>589</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" s="6">
-        <v>2561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>585</v>
       </c>
@@ -1148,13 +1151,13 @@
         <v>591</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" s="6">
-        <v>525309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>600</v>
       </c>
@@ -1162,43 +1165,55 @@
         <v>594</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" s="6">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>596</v>
       </c>
       <c r="B35" s="1">
         <v>592</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="8">
-        <v>12.872077472441552</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="6">
+        <v>525309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>589</v>
       </c>
       <c r="B36" s="1">
         <v>592</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>594</v>
       </c>
       <c r="B37" s="1">
         <v>585</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="8">
+        <v>12.872077472441552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>592</v>
       </c>
@@ -1206,15 +1221,26 @@
         <v>596</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>580</v>
       </c>
       <c r="B39" s="1">
         <v>587</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="26">
+        <f>E24-E37</f>
+        <v>412.1352040809565</v>
+      </c>
+      <c r="F39" s="26">
+        <f>E24+E37</f>
+        <v>437.87935902583962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>595</v>
       </c>
@@ -1222,7 +1248,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>612</v>
       </c>
@@ -1230,7 +1256,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>235</v>
       </c>
@@ -1238,7 +1264,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>579</v>
       </c>
@@ -1246,7 +1272,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>600</v>
       </c>
@@ -1254,7 +1280,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>582</v>
       </c>
@@ -1262,7 +1288,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>596</v>
       </c>
@@ -1270,7 +1296,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>595</v>
       </c>
@@ -1278,7 +1304,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>612</v>
       </c>
@@ -10800,8 +10826,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G17:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J17:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
